--- a/我的家/山西.xlsx
+++ b/我的家/山西.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kenny\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\我的家\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="64">
   <si>
     <t>2016.02.08(初一)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -219,26 +219,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>大同</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汉口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016.02.13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>大同火车站店</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>K1365 09:06-08:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>无安排</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -263,43 +247,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>04车09中09下10下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>05车19下20下,16车007,008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武昌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T289 10:42-14:03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武汉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>咸宁北</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G433 14:49-15:13(16:25)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>火车上，云冈石窟</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>08车05上下13车无座</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>04车03BCF</t>
+    <t>集宁南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z338 14:49-10:45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17车11下，12下,11中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.02.12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6055 08:00-10:13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火车上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05车013,014,018,019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05车19下20下,16车008</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -912,10 +892,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -945,7 +925,7 @@
         <v>1020</v>
       </c>
       <c r="F1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
@@ -962,7 +942,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -979,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -996,7 +976,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
@@ -1010,17 +990,17 @@
         <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E5">
         <f>97.5*2+22</f>
         <v>217</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="G5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H5">
         <v>13549664433</v>
@@ -1037,7 +1017,7 @@
         <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E6">
         <v>77</v>
@@ -1045,26 +1025,26 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E7">
-        <f>307.5+298.5+298.5</f>
-        <v>904.5</v>
+        <f>8.5+4.5+8.5+4.5</f>
+        <v>26</v>
       </c>
       <c r="F7" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="G7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H7">
         <v>13549664433</v>
@@ -1072,53 +1052,38 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C8" t="s">
         <v>39</v>
       </c>
       <c r="D8" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E8">
-        <f>107.5+99.5+27</f>
-        <v>234</v>
+        <f>397+397+274.5</f>
+        <v>1068.5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>52</v>
       </c>
       <c r="G8" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="H8">
         <v>13549664433</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" t="s">
-        <v>65</v>
-      </c>
-      <c r="E9">
-        <f>39.5*2+19.5</f>
-        <v>98.5</v>
-      </c>
-      <c r="G9" t="s">
-        <v>68</v>
-      </c>
-      <c r="H9">
-        <v>13549664433</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="E12">
-        <f>SUM(E1:E10)</f>
-        <v>2551</v>
+      <c r="I8">
+        <v>13873163478</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="E11">
+        <f>SUM(E1:E9)</f>
+        <v>2408.5</v>
       </c>
     </row>
   </sheetData>

--- a/我的家/山西.xlsx
+++ b/我的家/山西.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="116">
   <si>
     <t>2016.02.08(初一)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -280,6 +281,257 @@
   </si>
   <si>
     <t>05车19下20下,16车008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太原</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平遥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K689 08:47-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13车018,019,013,014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-02-10 08:47开
+K689 太原-平遥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13车厢
+013号
+硬座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏建超
+二代身份证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>儿童票
+8.5元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13车厢
+014号
+硬座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-02-12 08:00开
+6055 大同-集宁南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05车厢
+018号
+硬座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05车厢
+019号
+硬座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成人票
+8.5元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05车厢
+013号
+硬座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05车厢
+014号
+硬座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王蕾
+二代身份证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成人票
+4.5元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-02-12 14:49开
+Z338 集宁南-长沙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17车厢
+11号下铺
+硬卧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-02-11 09:05开
+K7804 太原-大同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05车厢
+20号下铺
+硬卧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成人票
+97.5元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成人票
+397.0元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05车厢
+19号下铺
+硬卧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单号：E005082738</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单号：E045710821</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单号：E088253389</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单号：E033698890</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单号：E065919330</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单号：E090211929</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13车厢
+018号
+硬座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13车厢
+019号
+硬座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成人票
+16.5元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单号：E097449705</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17车厢
+11号中铺
+硬卧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏冠华
+二代身份证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>儿童票
+274.5元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单号：E089934793</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17车厢
+12号下铺
+硬卧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单号：E089855863</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16车厢
+008号
+硬座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>儿童票
+22.0元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单号：E048725608</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -287,7 +539,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,6 +552,15 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -326,9 +587,27 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -892,10 +1171,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -907,7 +1186,7 @@
     <col min="8" max="9" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -928,7 +1207,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -945,7 +1224,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -962,128 +1241,178 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4">
+        <f>16.5+16.5+8.5+8.5</f>
+        <v>50</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4">
+        <v>13549664433</v>
+      </c>
+      <c r="I4">
+        <v>13873163478</v>
+      </c>
+      <c r="J4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
         <v>43</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
         <v>40</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D6" t="s">
         <v>41</v>
       </c>
-      <c r="E4">
+      <c r="E6">
         <v>0</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
         <v>44</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B7" t="s">
         <v>40</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C7" t="s">
         <v>45</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D7" t="s">
         <v>53</v>
       </c>
-      <c r="E5">
+      <c r="E7">
         <f>97.5*2+22</f>
         <v>217</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F7" t="s">
         <v>55</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G7" t="s">
         <v>63</v>
       </c>
-      <c r="H5">
+      <c r="H7">
         <v>13549664433</v>
       </c>
-      <c r="I5">
+      <c r="I7">
         <v>13873163478</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
+      <c r="J7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
         <v>44</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" t="s">
         <v>46</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D8" t="s">
         <v>48</v>
       </c>
-      <c r="E6">
+      <c r="E8">
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
         <v>59</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B9" t="s">
         <v>45</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C9" t="s">
         <v>56</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D9" t="s">
         <v>60</v>
       </c>
-      <c r="E7">
+      <c r="E9">
         <f>8.5+4.5+8.5+4.5</f>
         <v>26</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F9" t="s">
         <v>61</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G9" t="s">
         <v>62</v>
       </c>
-      <c r="H7">
+      <c r="H9">
         <v>13549664433</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
+      <c r="J9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
         <v>47</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B10" t="s">
         <v>56</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C10" t="s">
         <v>39</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D10" t="s">
         <v>57</v>
       </c>
-      <c r="E8">
+      <c r="E10">
         <f>397+397+274.5</f>
         <v>1068.5</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F10" t="s">
         <v>52</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G10" t="s">
         <v>58</v>
       </c>
-      <c r="H8">
+      <c r="H10">
         <v>13549664433</v>
       </c>
-      <c r="I8">
+      <c r="I10">
         <v>13873163478</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="E11">
-        <f>SUM(E1:E9)</f>
-        <v>2408.5</v>
+      <c r="J10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="E13">
+        <f>SUM(E1:E11)</f>
+        <v>2458.5</v>
       </c>
     </row>
   </sheetData>
@@ -1091,4 +1420,324 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="26.125" customWidth="1"/>
+    <col min="2" max="2" width="12.25" customWidth="1"/>
+    <col min="3" max="3" width="11.25" customWidth="1"/>
+    <col min="5" max="5" width="22.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="5">
+        <v>13549664433</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="5">
+        <v>13873163478</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="E13:E14"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/我的家/山西.xlsx
+++ b/我的家/山西.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="115">
   <si>
     <t>2016.02.08(初一)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -268,15 +268,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6055 08:00-10:13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>火车上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>05车013,014,018,019</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -327,47 +319,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2016-02-12 08:00开
-6055 大同-集宁南</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>05车厢
-018号
-硬座</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>05车厢
-019号
-硬座</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成人票
-8.5元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>05车厢
-013号
-硬座</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>05车厢
-014号
-硬座</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>王蕾
 二代身份证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成人票
-4.5元</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -421,14 +374,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>订单号：E033698890</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单号：E065919330</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>订单号：E090211929</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -532,6 +477,55 @@
   </si>
   <si>
     <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单号：E099429051</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-02-12 08:56开
+K711 大同-集宁南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12车厢
+083号
+硬座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12车厢
+084号
+硬座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12车厢
+085号
+硬座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成人票
+19.5元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>儿童票
+10元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K711 08:56-10:39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12车083,084,085</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -597,6 +591,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -605,9 +602,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1173,8 +1167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1246,23 +1240,23 @@
         <v>36</v>
       </c>
       <c r="B4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" t="s">
         <v>64</v>
-      </c>
-      <c r="C4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" t="s">
-        <v>66</v>
       </c>
       <c r="E4">
         <f>16.5+16.5+8.5+8.5</f>
         <v>50</v>
       </c>
       <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
         <v>65</v>
-      </c>
-      <c r="G4" t="s">
-        <v>67</v>
       </c>
       <c r="H4">
         <v>13549664433</v>
@@ -1271,7 +1265,7 @@
         <v>13873163478</v>
       </c>
       <c r="J4" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
@@ -1279,7 +1273,7 @@
         <v>36</v>
       </c>
       <c r="J5" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
@@ -1320,7 +1314,7 @@
         <v>55</v>
       </c>
       <c r="G7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H7">
         <v>13549664433</v>
@@ -1329,7 +1323,7 @@
         <v>13873163478</v>
       </c>
       <c r="J7" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
@@ -1357,23 +1351,23 @@
         <v>56</v>
       </c>
       <c r="D9" t="s">
+        <v>113</v>
+      </c>
+      <c r="E9">
+        <f>19.5+19.5+10</f>
+        <v>49</v>
+      </c>
+      <c r="F9" t="s">
         <v>60</v>
       </c>
-      <c r="E9">
-        <f>8.5+4.5+8.5+4.5</f>
-        <v>26</v>
-      </c>
-      <c r="F9" t="s">
-        <v>61</v>
-      </c>
       <c r="G9" t="s">
-        <v>62</v>
+        <v>114</v>
       </c>
       <c r="H9">
         <v>13549664433</v>
       </c>
       <c r="J9" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
@@ -1406,13 +1400,13 @@
         <v>13873163478</v>
       </c>
       <c r="J10" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="E13">
         <f>SUM(E1:E11)</f>
-        <v>2458.5</v>
+        <v>2481.5</v>
       </c>
     </row>
   </sheetData>
@@ -1424,10 +1418,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1439,305 +1433,285 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="5">
+      <c r="A1" s="6">
         <v>13549664433</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>107</v>
+      <c r="E2" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="6" t="s">
-        <v>107</v>
+        <v>69</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="3" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>92</v>
+        <v>110</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E5" s="3"/>
+        <v>110</v>
+      </c>
+      <c r="E5" s="4"/>
       <c r="F5" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>91</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="E6" s="4"/>
       <c r="F6" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E7" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="F7" s="1" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="F8" s="1" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="6">
+        <v>13873163478</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="C12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="5">
-        <v>13873163478</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+      <c r="E12" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E14" s="4"/>
+        <v>89</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="F14" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>113</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E4:E5"/>
+  <mergeCells count="5">
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E4:E6"/>
     <mergeCell ref="E2:E3"/>
-    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A11:E11"/>
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="E13:E14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/我的家/山西.xlsx
+++ b/我的家/山西.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="128">
   <si>
     <t>2016.02.08(初一)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -526,6 +526,68 @@
   </si>
   <si>
     <t>12车083,084,085</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平遥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太原</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K962 15:19-17:03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03车103,106,107</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单号：E003790503</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-02-10 15:19开
+K962 平遥-太原</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03车厢
+103号
+硬座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03车厢
+106号
+硬座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03车厢
+107号
+硬座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏建超
+二代身份证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成人票
+16.5元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>儿童票
+8.5元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -595,10 +657,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1167,8 +1229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1272,6 +1334,25 @@
       <c r="A5" t="s">
         <v>36</v>
       </c>
+      <c r="B5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E5">
+        <f>16.5+16.5+8.5</f>
+        <v>41.5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>118</v>
+      </c>
+      <c r="H5">
+        <v>13549664433</v>
+      </c>
       <c r="J5" t="s">
         <v>98</v>
       </c>
@@ -1406,7 +1487,7 @@
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="E13">
         <f>SUM(E1:E11)</f>
-        <v>2481.5</v>
+        <v>2523</v>
       </c>
     </row>
   </sheetData>
@@ -1418,10 +1499,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1454,7 +1535,7 @@
       <c r="D2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>82</v>
       </c>
       <c r="F2" s="3" t="s">
@@ -1474,7 +1555,7 @@
       <c r="D3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="4"/>
       <c r="F3" s="3" t="s">
         <v>96</v>
       </c>
@@ -1492,7 +1573,7 @@
       <c r="D4" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>105</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -1512,7 +1593,7 @@
       <c r="D5" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="E5" s="5"/>
       <c r="F5" s="1" t="s">
         <v>103</v>
       </c>
@@ -1530,7 +1611,7 @@
       <c r="D6" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E6" s="4"/>
+      <c r="E6" s="5"/>
       <c r="F6" s="1" t="s">
         <v>112</v>
       </c>
@@ -1595,120 +1676,177 @@
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="6">
-        <v>13873163478</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
+    <row r="10" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="1" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="12" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>66</v>
+        <v>120</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>83</v>
+        <v>123</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>68</v>
+        <v>124</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>86</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="E12" s="5"/>
       <c r="F12" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>104</v>
-      </c>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="6">
+        <v>13873163478</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>86</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="E12:E13"/>
+  <mergeCells count="6">
+    <mergeCell ref="E15:E16"/>
     <mergeCell ref="E4:E6"/>
     <mergeCell ref="E2:E3"/>
-    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A14:E14"/>
     <mergeCell ref="A1:E1"/>
+    <mergeCell ref="E10:E12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/我的家/山西.xlsx
+++ b/我的家/山西.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -284,10 +284,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>K689 08:47-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>13车018,019,013,014</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -588,6 +584,10 @@
   </si>
   <si>
     <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K689 08:47-10:11</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1229,8 +1229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1308,7 +1308,7 @@
         <v>63</v>
       </c>
       <c r="D4" t="s">
-        <v>64</v>
+        <v>127</v>
       </c>
       <c r="E4">
         <f>16.5+16.5+8.5+8.5</f>
@@ -1318,7 +1318,7 @@
         <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H4">
         <v>13549664433</v>
@@ -1327,7 +1327,7 @@
         <v>13873163478</v>
       </c>
       <c r="J4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
@@ -1335,26 +1335,26 @@
         <v>36</v>
       </c>
       <c r="B5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" t="s">
         <v>115</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>116</v>
-      </c>
-      <c r="D5" t="s">
-        <v>117</v>
       </c>
       <c r="E5">
         <f>16.5+16.5+8.5</f>
         <v>41.5</v>
       </c>
       <c r="G5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H5">
         <v>13549664433</v>
       </c>
       <c r="J5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
@@ -1404,7 +1404,7 @@
         <v>13873163478</v>
       </c>
       <c r="J7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
@@ -1432,7 +1432,7 @@
         <v>56</v>
       </c>
       <c r="D9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E9">
         <f>19.5+19.5+10</f>
@@ -1442,13 +1442,13 @@
         <v>60</v>
       </c>
       <c r="G9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H9">
         <v>13549664433</v>
       </c>
       <c r="J9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
@@ -1481,7 +1481,7 @@
         <v>13873163478</v>
       </c>
       <c r="J10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
@@ -1501,7 +1501,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -1524,212 +1524,212 @@
     </row>
     <row r="2" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="E2" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="E8" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="C10" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="E10" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="D12" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
@@ -1743,100 +1743,100 @@
     </row>
     <row r="15" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>86</v>
-      </c>
       <c r="F15" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="F17" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="F18" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="F19" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/我的家/山西.xlsx
+++ b/我的家/山西.xlsx
@@ -196,10 +196,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>HU 7394 15:05-18:55</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2016.02.10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -588,6 +584,10 @@
   </si>
   <si>
     <t>K689 08:47-10:11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HU 7394 17:05-18:55</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1230,7 +1230,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1253,14 +1253,14 @@
         <v>40</v>
       </c>
       <c r="D1" t="s">
-        <v>42</v>
+        <v>127</v>
       </c>
       <c r="E1">
         <f>290*2+240+120+80</f>
         <v>1020</v>
       </c>
       <c r="F1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
@@ -1277,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
@@ -1302,23 +1302,23 @@
         <v>36</v>
       </c>
       <c r="B4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" t="s">
         <v>62</v>
       </c>
-      <c r="C4" t="s">
-        <v>63</v>
-      </c>
       <c r="D4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E4">
         <f>16.5+16.5+8.5+8.5</f>
         <v>50</v>
       </c>
       <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
         <v>63</v>
-      </c>
-      <c r="G4" t="s">
-        <v>64</v>
       </c>
       <c r="H4">
         <v>13549664433</v>
@@ -1327,7 +1327,7 @@
         <v>13873163478</v>
       </c>
       <c r="J4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
@@ -1335,31 +1335,31 @@
         <v>36</v>
       </c>
       <c r="B5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" t="s">
         <v>114</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>115</v>
-      </c>
-      <c r="D5" t="s">
-        <v>116</v>
       </c>
       <c r="E5">
         <f>16.5+16.5+8.5</f>
         <v>41.5</v>
       </c>
       <c r="G5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H5">
         <v>13549664433</v>
       </c>
       <c r="J5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
         <v>40</v>
@@ -1371,31 +1371,31 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
         <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E7">
         <f>97.5*2+22</f>
         <v>217</v>
       </c>
       <c r="F7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H7">
         <v>13549664433</v>
@@ -1404,18 +1404,18 @@
         <v>13873163478</v>
       </c>
       <c r="J7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E8">
         <v>77</v>
@@ -1423,56 +1423,56 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E9">
         <f>19.5+19.5+10</f>
         <v>49</v>
       </c>
       <c r="F9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H9">
         <v>13549664433</v>
       </c>
       <c r="J9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C10" t="s">
         <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E10">
         <f>397+397+274.5</f>
         <v>1068.5</v>
       </c>
       <c r="F10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H10">
         <v>13549664433</v>
@@ -1481,7 +1481,7 @@
         <v>13873163478</v>
       </c>
       <c r="J10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
@@ -1501,7 +1501,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -1524,212 +1524,212 @@
     </row>
     <row r="2" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="E2" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="E8" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="C10" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="E10" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="D12" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
@@ -1743,100 +1743,100 @@
     </row>
     <row r="15" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>85</v>
-      </c>
       <c r="F15" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="F17" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="F18" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="F19" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
